--- a/Results/RFE/Swallowing/MFCCs/swallowing_vocali_rfe.xlsx
+++ b/Results/RFE/Swallowing/MFCCs/swallowing_vocali_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8227169888934596</v>
+        <v>0.927536231884058</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7274725274725276</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8119263089851325</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.578958818958819</v>
+        <v>0.5660377358490566</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6393794440853264</v>
+        <v>0.6376811594202898</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9692307692307693</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8595238095238095</v>
+        <v>0.9565217391304348</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7604728604728606</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="11">
@@ -1057,7 +1057,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5960606060606061</v>
+        <v>0.5333333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9273260073260075</v>
+        <v>0.9411764705882353</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8380392156862746</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O14" t="n">
-        <v>0.866941391941392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8298901098901098</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (16, 8), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6502786377708978</v>
+        <v>0.7848101265822784</v>
       </c>
     </row>
   </sheetData>
